--- a/biology/Zoologie/Dascyllus/Dascyllus.xlsx
+++ b/biology/Zoologie/Dascyllus/Dascyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dascyllus est un genre de poissons de la famille des Pomacentridae. Ils font partie des « poissons-demoiselles ». 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits poissons essentiellement planctonivores. 
 Ils vivent souvent en association étroite avec des coraux buissonnants des genres Acropora et Pocillopora. 
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                           (22 janvier 2017)[1] et World Register of Marine Species                               (22 janvier 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                           (22 janvier 2017) et World Register of Marine Species                               (22 janvier 2017) :
 Dascyllus abudafur (Forsskål, 1775)  — Océan Indien
 Dascyllus albisella Gill, 1862 — Hawaii
 Dascyllus aruanus (Linnaeus, 1758) — Demoiselle à trois bandes noires (Pacifique tropical)
